--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Python\pyExcel\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47B7474-123F-4EC0-ACE2-3B98A1F2C148}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F541AF40-4A89-4D54-AF8E-DC8912D2F02C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C0647379-6D62-407A-9B64-AFDE3205BE2A}"/>
   </bookViews>
@@ -2019,7 +2019,7 @@
   <dimension ref="A1:G698"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
